--- a/fuentes/contenidos/grado05/guion01/SolicitudGrafica_LE_05_01_REC180.xlsx
+++ b/fuentes/contenidos/grado05/guion01/SolicitudGrafica_LE_05_01_REC180.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -1454,6 +1454,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,7 +1551,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2299,9 +2299,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2322,7 +2322,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2334,47 +2334,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="88"/>
+      <c r="F2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="89">
         <v>5</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="90"/>
+      <c r="F3" s="82">
+        <v>42073</v>
+      </c>
+      <c r="G3" s="83"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="55" t="s">
         <v>56</v>
@@ -2392,16 +2394,16 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="5"/>
       <c r="F5" s="53" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="79" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="56"/>
@@ -2409,7 +2411,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2440,18 +2442,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2460,7 +2462,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26" thickBot="1">
+    <row r="9" spans="1:16" ht="27" thickBot="1">
       <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2652,7 @@
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1">
       <c r="A14" s="13" t="str">
-        <f t="shared" ref="A12:A30" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
+        <f t="shared" ref="A14:A30" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B14" s="28"/>
@@ -2679,7 +2681,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="15" spans="1:16" s="12" customFormat="1">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2710,7 +2712,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="12" customFormat="1">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2741,7 +2743,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="17" spans="1:11" s="12" customFormat="1">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2772,7 +2774,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="18" spans="1:11" s="12" customFormat="1">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2803,7 +2805,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="19" spans="1:11" s="12" customFormat="1">
       <c r="A19" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2834,7 +2836,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="20" spans="1:11" s="12" customFormat="1">
       <c r="A20" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2865,7 +2867,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="21" spans="1:11" s="12" customFormat="1">
       <c r="A21" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2896,7 +2898,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="22" spans="1:11" s="12" customFormat="1">
       <c r="A22" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2927,7 +2929,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2955,7 +2957,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="24" spans="1:11" s="12" customFormat="1">
       <c r="A24" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2983,7 +2985,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3011,7 +3013,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3039,7 +3041,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="A27" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3067,7 +3069,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3095,7 +3097,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3123,7 +3125,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5177,38 +5179,38 @@
     <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="47"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="47"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="48"/>
       <c r="H3" s="38" t="s">
         <v>19</v>
@@ -5223,7 +5225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="46" t="s">
         <v>45</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>46</v>
       </c>
@@ -5259,11 +5261,11 @@
       <c r="C5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="48"/>
       <c r="H5" s="38" t="s">
         <v>23</v>
@@ -5278,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="46" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
@@ -5308,12 +5310,12 @@
       <c r="C7" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
       <c r="H7" s="38" t="s">
         <v>25</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="49" t="s">
         <v>54</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="49" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="50" t="s">
         <v>37</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="38" t="s">
         <v>38</v>
       </c>
@@ -5407,14 +5409,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="I13" s="38" t="s">
         <v>34</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="49"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -5447,12 +5449,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
       <c r="J15" s="38">
         <v>12</v>
       </c>
@@ -5492,12 +5494,12 @@
       <c r="C17" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
       <c r="J17" s="38">
         <v>14</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="49" t="s">
         <v>49</v>
       </c>
@@ -5513,12 +5515,12 @@
       <c r="C18" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
       <c r="J18" s="38">
         <v>15</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="50" t="s">
         <v>52</v>
       </c>
@@ -5921,41 +5923,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="57" t="s">
         <v>66</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="59" customFormat="1" ht="26.5">
+    <row r="7" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A7" s="60" t="s">
         <v>85</v>
       </c>
@@ -6106,7 +6108,7 @@
       </c>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:11" s="59" customFormat="1">
+    <row r="8" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A8" s="60" t="s">
         <v>87</v>
       </c>
@@ -6186,7 +6188,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:11" s="59" customFormat="1" ht="26.5">
+    <row r="11" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A11" s="60" t="s">
         <v>94</v>
       </c>
@@ -6242,7 +6244,7 @@
       </c>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" spans="1:11" ht="63.25">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="63" t="s">
         <v>98</v>
       </c>
@@ -6293,7 +6295,7 @@
       </c>
       <c r="J14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="31.75">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="63" t="s">
         <v>104</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="65" t="s">
         <v>108</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="60" t="s">
         <v>113</v>
       </c>
@@ -6422,7 +6424,7 @@
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
     </row>
-    <row r="24" spans="1:11" ht="31.75">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="73" t="s">
         <v>129</v>
       </c>
@@ -6448,7 +6450,7 @@
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
-    <row r="26" spans="1:11" ht="63.25">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="73" t="s">
         <v>135</v>
       </c>
